--- a/data/trans_orig/IP07C10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C10-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA0909FB-5A4F-4665-94E5-1C0932785525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62BB410A-A296-4926-921D-70982E047974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FDF71794-CB27-4475-B537-C916CF305845}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE27DFBC-CB8E-4454-A5F2-95FCABE5D76F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="454">
   <si>
     <t>Menores según frecuencia de sentirse comprendido por sus padres en 2007 (Tasa respuesta: 42,16%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>45,69%</t>
   </si>
   <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
   </si>
   <si>
     <t>33,99%</t>
   </si>
   <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
   </si>
   <si>
     <t>39,57%</t>
   </si>
   <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -106,28 +106,28 @@
     <t>25,54%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
   </si>
   <si>
     <t>44,23%</t>
   </si>
   <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
   </si>
   <si>
     <t>35,32%</t>
   </si>
   <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
   </si>
   <si>
     <t>Moderadamente</t>
@@ -136,28 +136,28 @@
     <t>27,24%</t>
   </si>
   <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
   </si>
   <si>
     <t>20,23%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
   </si>
   <si>
     <t>Poco</t>
@@ -169,7 +169,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,58%</t>
+    <t>7,65%</t>
   </si>
   <si>
     <t>0%</t>
@@ -181,7 +181,7 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>3,68%</t>
+    <t>3,64%</t>
   </si>
   <si>
     <t>Nada</t>
@@ -193,13 +193,13 @@
     <t>1,54%</t>
   </si>
   <si>
-    <t>7,31%</t>
+    <t>9,16%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>3,69%</t>
+    <t>4,07%</t>
   </si>
   <si>
     <t>100%</t>
@@ -211,82 +211,82 @@
     <t>37,49%</t>
   </si>
   <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
   </si>
   <si>
     <t>39,74%</t>
   </si>
   <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
   </si>
   <si>
     <t>38,53%</t>
   </si>
   <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>42,5%</t>
   </si>
   <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
   </si>
   <si>
     <t>44,22%</t>
   </si>
   <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
   </si>
   <si>
     <t>43,3%</t>
   </si>
   <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
   </si>
   <si>
     <t>16,87%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
   </si>
   <si>
     <t>0,94%</t>
@@ -295,1108 +295,1111 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>2,53%</t>
+    <t>2,56%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 41,78%)</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2016 (Tasa respuesta: 44,59%)</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 41,78%)</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2015 (Tasa respuesta: 44,59%)</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
     <t>1,2%</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
     <t>2,01%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
+    <t>1,77%</t>
+  </si>
+  <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>0,38%</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BD5A05-57AE-4618-B2DA-F1D38471F17E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBB5D35-A81B-4EAA-87D1-E46263ECBECC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2668,10 +2671,10 @@
         <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -2680,13 +2683,13 @@
         <v>18339</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,13 +2704,13 @@
         <v>3355</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2722,7 +2725,7 @@
         <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -2731,13 +2734,13 @@
         <v>3355</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,7 +2761,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2767,13 +2770,13 @@
         <v>1467</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2782,13 +2785,13 @@
         <v>1467</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,10 +2859,10 @@
         <v>117222</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>138</v>
@@ -2991,10 +2994,10 @@
         <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +3012,13 @@
         <v>6026</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3045,7 +3048,7 @@
         <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3063,13 @@
         <v>578</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3075,13 +3078,13 @@
         <v>2177</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -3090,13 +3093,13 @@
         <v>2755</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3155,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3171,7 +3174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A3C92F-F6D5-4704-A6DD-71587A74C024}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7929AA9-8B29-4872-B82E-04EA6E9CBEC7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3188,7 +3191,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3295,13 +3298,13 @@
         <v>13478</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -3310,13 +3313,13 @@
         <v>16022</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -3325,13 +3328,13 @@
         <v>29500</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3349,13 @@
         <v>19126</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H5" s="7">
         <v>34</v>
@@ -3361,13 +3364,13 @@
         <v>23526</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M5" s="7">
         <v>60</v>
@@ -3376,13 +3379,13 @@
         <v>42653</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3400,13 @@
         <v>10699</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -3412,13 +3415,13 @@
         <v>7291</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M6" s="7">
         <v>26</v>
@@ -3427,13 +3430,13 @@
         <v>17989</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3451,13 @@
         <v>607</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3469,7 +3472,7 @@
         <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3478,13 +3481,13 @@
         <v>607</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,7 +3508,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3514,13 +3517,13 @@
         <v>595</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3529,13 +3532,13 @@
         <v>595</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3606,13 @@
         <v>91164</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -3618,13 +3621,13 @@
         <v>64280</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>223</v>
@@ -3633,13 +3636,13 @@
         <v>155444</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,7 +3663,7 @@
         <v>225</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7">
         <v>135</v>
@@ -3669,13 +3672,13 @@
         <v>94009</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M11" s="7">
         <v>277</v>
@@ -3684,13 +3687,13 @@
         <v>190574</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3708,13 @@
         <v>22629</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -3720,13 +3723,13 @@
         <v>30769</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M12" s="7">
         <v>78</v>
@@ -3735,13 +3738,13 @@
         <v>53398</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3759,13 @@
         <v>5508</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3771,13 +3774,13 @@
         <v>768</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3786,13 +3789,13 @@
         <v>6276</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>246</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>247</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,7 +4001,7 @@
         <v>267</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +4016,13 @@
         <v>8512</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -4028,13 +4031,13 @@
         <v>7011</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -4043,13 +4046,13 @@
         <v>15524</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,7 +4073,7 @@
         <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4085,7 +4088,7 @@
         <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4100,7 +4103,7 @@
         <v>44</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,7 +4124,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4136,7 +4139,7 @@
         <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4151,7 +4154,7 @@
         <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4222,13 @@
         <v>121697</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>151</v>
@@ -4234,13 +4237,13 @@
         <v>105799</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>327</v>
@@ -4249,13 +4252,13 @@
         <v>227495</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4273,13 @@
         <v>144376</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H23" s="7">
         <v>203</v>
@@ -4285,13 +4288,13 @@
         <v>142431</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M23" s="7">
         <v>413</v>
@@ -4300,13 +4303,13 @@
         <v>286807</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4324,13 @@
         <v>41840</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H24" s="7">
         <v>64</v>
@@ -4336,13 +4339,13 @@
         <v>45071</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M24" s="7">
         <v>126</v>
@@ -4351,13 +4354,13 @@
         <v>86911</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4375,13 @@
         <v>6115</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4387,13 +4390,13 @@
         <v>768</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -4402,13 +4405,13 @@
         <v>6883</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,7 +4432,7 @@
         <v>44</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4438,13 +4441,13 @@
         <v>595</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -4453,13 +4456,13 @@
         <v>595</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>90</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,7 +4518,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4534,7 +4537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5526756-7292-4A03-A80C-448EE6862A43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340A5884-BAFC-4333-B260-7F266CE45147}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4551,7 +4554,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4658,13 +4661,13 @@
         <v>14029</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4673,13 +4676,13 @@
         <v>8131</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -4688,13 +4691,13 @@
         <v>22159</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4712,13 @@
         <v>17876</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -4724,13 +4727,13 @@
         <v>15106</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -4739,13 +4742,13 @@
         <v>32983</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4763,13 @@
         <v>3518</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4775,13 +4778,13 @@
         <v>5429</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -4790,13 +4793,13 @@
         <v>8946</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4814,13 @@
         <v>562</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4826,13 +4829,13 @@
         <v>706</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4841,13 +4844,13 @@
         <v>1269</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>349</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,7 +4871,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4877,13 +4880,13 @@
         <v>617</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4898,7 +4901,7 @@
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4969,13 @@
         <v>90965</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>148</v>
@@ -4981,13 +4984,13 @@
         <v>104732</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>272</v>
@@ -4996,13 +4999,13 @@
         <v>195697</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5020,13 @@
         <v>103843</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H11" s="7">
         <v>136</v>
@@ -5032,13 +5035,13 @@
         <v>95576</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M11" s="7">
         <v>278</v>
@@ -5047,13 +5050,13 @@
         <v>199420</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5071,13 @@
         <v>29821</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H12" s="7">
         <v>46</v>
@@ -5083,13 +5086,13 @@
         <v>31171</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>158</v>
+        <v>371</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M12" s="7">
         <v>87</v>
@@ -5098,13 +5101,13 @@
         <v>60992</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>378</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5122,13 @@
         <v>3763</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5134,13 +5137,13 @@
         <v>2397</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>127</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -5149,13 +5152,13 @@
         <v>6160</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,13 +5173,13 @@
         <v>1785</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -5185,10 +5188,10 @@
         <v>2882</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>386</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>387</v>
@@ -5203,7 +5206,7 @@
         <v>388</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>389</v>
@@ -5277,10 +5280,10 @@
         <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -5289,13 +5292,13 @@
         <v>25352</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -5409,10 +5412,10 @@
         <v>413</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>414</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>415</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,7 +5436,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5448,7 +5451,7 @@
         <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5457,13 +5460,13 @@
         <v>708</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>416</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,7 +5487,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5499,7 +5502,7 @@
         <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5582,13 +5585,13 @@
         <v>140773</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>196</v>
@@ -5597,7 +5600,7 @@
         <v>138215</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>187</v>
+        <v>422</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>423</v>
@@ -5618,7 +5621,7 @@
         <v>426</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5636,13 @@
         <v>150921</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H23" s="7">
         <v>202</v>
@@ -5651,10 +5654,10 @@
         <v>113</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M23" s="7">
         <v>409</v>
@@ -5663,7 +5666,7 @@
         <v>293949</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>106</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>433</v>
@@ -5687,10 +5690,10 @@
         <v>435</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H24" s="7">
         <v>71</v>
@@ -5699,13 +5702,13 @@
         <v>48758</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M24" s="7">
         <v>130</v>
@@ -5714,13 +5717,13 @@
         <v>91908</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,7 +5738,7 @@
         <v>5034</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>443</v>
+        <v>308</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>444</v>
@@ -5756,7 +5759,7 @@
         <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -5768,10 +5771,10 @@
         <v>447</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>213</v>
+        <v>448</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5789,13 @@
         <v>1785</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>244</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -5801,13 +5804,13 @@
         <v>3499</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>384</v>
+        <v>91</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -5816,13 +5819,13 @@
         <v>5284</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>87</v>
+        <v>446</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,7 +5881,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C10-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62BB410A-A296-4926-921D-70982E047974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46D014C3-C3F2-4575-99A6-F2F805A10FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE27DFBC-CB8E-4454-A5F2-95FCABE5D76F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9EE04EBD-26B6-4E8B-A205-240411C33096}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="452">
   <si>
     <t>Menores según frecuencia de sentirse comprendido por sus padres en 2007 (Tasa respuesta: 42,16%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1333 +73,1327 @@
     <t>Muchísimo</t>
   </si>
   <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
     <t>45,69%</t>
   </si>
   <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
   </si>
   <si>
     <t>39,57%</t>
   </si>
   <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
   </si>
   <si>
     <t>Mucho</t>
   </si>
   <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
     <t>25,54%</t>
   </si>
   <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
   </si>
   <si>
     <t>35,32%</t>
   </si>
   <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
   </si>
   <si>
     <t>Moderadamente</t>
   </si>
   <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
     <t>27,24%</t>
   </si>
   <si>
-    <t>17,02%</t>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 41,78%)</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
   </si>
   <si>
     <t>38,75%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2016 (Tasa respuesta: 44,59%)</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
   </si>
   <si>
     <t>31,47%</t>
   </si>
   <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
   </si>
   <si>
     <t>42,71%</t>
   </si>
   <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 41,78%)</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2016 (Tasa respuesta: 44,59%)</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBB5D35-A81B-4EAA-87D1-E46263ECBECC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EBF54A-3589-49D0-AA84-ECA4C9E346E2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1929,10 +1923,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>19166</v>
+        <v>15642</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1944,10 +1938,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>15642</v>
+        <v>19166</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1980,10 +1974,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>10712</v>
+        <v>20353</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1995,10 +1989,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>20353</v>
+        <v>10712</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2031,10 +2025,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>11427</v>
+        <v>9309</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2046,10 +2040,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I6" s="7">
-        <v>9309</v>
+        <v>11427</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2082,10 +2076,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2097,16 +2091,16 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>45</v>
@@ -2121,7 +2115,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>47</v>
@@ -2133,28 +2127,28 @@
         <v>48</v>
       </c>
       <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>710</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>710</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
@@ -2172,7 +2166,7 @@
         <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>53</v>
@@ -2184,25 +2178,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46014</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="7">
         <v>63</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>41947</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="7">
-        <v>69</v>
-      </c>
-      <c r="I9" s="7">
-        <v>46014</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2237,10 +2231,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D10" s="7">
-        <v>80964</v>
+        <v>74424</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>56</v>
@@ -2252,10 +2246,10 @@
         <v>58</v>
       </c>
       <c r="H10" s="7">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="I10" s="7">
-        <v>74424</v>
+        <v>80964</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>59</v>
@@ -2288,10 +2282,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D11" s="7">
-        <v>91797</v>
+        <v>82815</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>65</v>
@@ -2303,10 +2297,10 @@
         <v>67</v>
       </c>
       <c r="H11" s="7">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="I11" s="7">
-        <v>82815</v>
+        <v>91797</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>68</v>
@@ -2339,10 +2333,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7">
-        <v>40604</v>
+        <v>27410</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>74</v>
@@ -2354,10 +2348,10 @@
         <v>76</v>
       </c>
       <c r="H12" s="7">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>27410</v>
+        <v>40604</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>77</v>
@@ -2390,10 +2384,10 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>2029</v>
+        <v>2646</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>83</v>
@@ -2405,10 +2399,10 @@
         <v>85</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>2646</v>
+        <v>2029</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>86</v>
@@ -2417,7 +2411,7 @@
         <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2426,13 +2420,13 @@
         <v>4674</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,34 +2435,34 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>578</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2477,13 +2471,13 @@
         <v>578</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,25 +2486,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>280</v>
+      </c>
+      <c r="D15" s="7">
+        <v>187295</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="7">
         <v>326</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>215972</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="7">
-        <v>280</v>
-      </c>
-      <c r="I15" s="7">
-        <v>187295</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>54</v>
@@ -2539,40 +2533,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>26</v>
+      </c>
+      <c r="D16" s="7">
+        <v>18425</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="7">
         <v>25</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>17092</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="7">
-        <v>26</v>
-      </c>
-      <c r="I16" s="7">
-        <v>18425</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -2581,13 +2575,13 @@
         <v>35517</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,31 +2593,31 @@
         <v>32</v>
       </c>
       <c r="D17" s="7">
-        <v>20991</v>
+        <v>22361</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
       </c>
       <c r="I17" s="7">
-        <v>22361</v>
+        <v>20991</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -2632,13 +2626,13 @@
         <v>43352</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,34 +2641,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10737</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="7">
         <v>11</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>7602</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="7">
-        <v>16</v>
-      </c>
-      <c r="I18" s="7">
-        <v>10737</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -2683,13 +2677,13 @@
         <v>18339</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,34 +2692,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="7">
         <v>5</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>3355</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -2734,13 +2728,13 @@
         <v>3355</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,34 +2743,34 @@
         <v>48</v>
       </c>
       <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1467</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1467</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2785,13 +2779,13 @@
         <v>1467</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,25 +2794,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>76</v>
+      </c>
+      <c r="D21" s="7">
+        <v>52990</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="7">
         <v>73</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>49040</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="7">
-        <v>76</v>
-      </c>
-      <c r="I21" s="7">
-        <v>52990</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>54</v>
@@ -2853,34 +2847,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>160</v>
+      </c>
+      <c r="D22" s="7">
+        <v>108491</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="7">
         <v>177</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>117222</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H22" s="7">
-        <v>160</v>
-      </c>
-      <c r="I22" s="7">
-        <v>108491</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>337</v>
@@ -2889,13 +2883,13 @@
         <v>225714</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,34 +2898,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>186</v>
+      </c>
+      <c r="D23" s="7">
+        <v>125529</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="7">
         <v>185</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>123500</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H23" s="7">
-        <v>186</v>
-      </c>
-      <c r="I23" s="7">
-        <v>125529</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M23" s="7">
         <v>371</v>
@@ -2940,13 +2934,13 @@
         <v>249029</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,34 +2949,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>72</v>
+      </c>
+      <c r="D24" s="7">
+        <v>47457</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" s="7">
         <v>90</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>59632</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="H24" s="7">
-        <v>72</v>
-      </c>
-      <c r="I24" s="7">
-        <v>47457</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>162</v>
@@ -2991,13 +2985,13 @@
         <v>107089</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,34 +3000,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2646</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="7">
         <v>9</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>6026</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2646</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -3042,13 +3036,13 @@
         <v>8672</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,34 +3051,34 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2177</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>578</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2177</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -3093,13 +3087,13 @@
         <v>2755</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,25 +3102,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>425</v>
+      </c>
+      <c r="D27" s="7">
+        <v>286300</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
         <v>462</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>306959</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="7">
-        <v>425</v>
-      </c>
-      <c r="I27" s="7">
-        <v>286300</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>54</v>
@@ -3155,7 +3149,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3174,7 +3168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7929AA9-8B29-4872-B82E-04EA6E9CBEC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBF418B-93F8-4C7C-B61D-261DC6996F06}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3191,7 +3185,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3292,34 +3286,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7">
+        <v>16022</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="7">
         <v>19</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>13478</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="H4" s="7">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7">
-        <v>16022</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -3328,13 +3322,13 @@
         <v>29500</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,34 +3337,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>34</v>
+      </c>
+      <c r="D5" s="7">
+        <v>23526</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="7">
         <v>26</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>19126</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="H5" s="7">
-        <v>34</v>
-      </c>
-      <c r="I5" s="7">
-        <v>23526</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M5" s="7">
         <v>60</v>
@@ -3379,13 +3373,13 @@
         <v>42653</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,34 +3388,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7291</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="7">
         <v>16</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>10699</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H6" s="7">
-        <v>10</v>
-      </c>
-      <c r="I6" s="7">
-        <v>7291</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M6" s="7">
         <v>26</v>
@@ -3430,13 +3424,13 @@
         <v>17989</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,34 +3439,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3481,13 +3475,13 @@
         <v>607</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,34 +3490,34 @@
         <v>48</v>
       </c>
       <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>595</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>595</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3532,13 +3526,13 @@
         <v>595</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,25 +3541,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>68</v>
+      </c>
+      <c r="D9" s="7">
+        <v>47434</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="7">
         <v>62</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43910</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="7">
-        <v>68</v>
-      </c>
-      <c r="I9" s="7">
-        <v>47434</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -3600,34 +3594,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>92</v>
+      </c>
+      <c r="D10" s="7">
+        <v>64280</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="7">
         <v>131</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>91164</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="H10" s="7">
-        <v>92</v>
-      </c>
-      <c r="I10" s="7">
-        <v>64280</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>223</v>
@@ -3636,13 +3630,13 @@
         <v>155444</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,34 +3645,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>135</v>
+      </c>
+      <c r="D11" s="7">
+        <v>94009</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H11" s="7">
         <v>142</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>96565</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H11" s="7">
-        <v>135</v>
-      </c>
-      <c r="I11" s="7">
-        <v>94009</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M11" s="7">
         <v>277</v>
@@ -3687,13 +3681,13 @@
         <v>190574</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,34 +3696,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>44</v>
+      </c>
+      <c r="D12" s="7">
+        <v>30769</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H12" s="7">
         <v>34</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>22629</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H12" s="7">
-        <v>44</v>
-      </c>
-      <c r="I12" s="7">
-        <v>30769</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M12" s="7">
         <v>78</v>
@@ -3738,13 +3732,13 @@
         <v>53398</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,34 +3747,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>768</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>5508</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>768</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3789,13 +3783,13 @@
         <v>6276</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,13 +3804,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3825,13 +3819,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3840,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,25 +3849,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>272</v>
+      </c>
+      <c r="D15" s="7">
+        <v>189826</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="7">
         <v>315</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>215866</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="7">
-        <v>272</v>
-      </c>
-      <c r="I15" s="7">
-        <v>189826</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>54</v>
@@ -3902,40 +3896,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25496</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H16" s="7">
         <v>26</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>17055</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H16" s="7">
-        <v>36</v>
-      </c>
-      <c r="I16" s="7">
-        <v>25496</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>256</v>
+        <v>136</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -3944,13 +3938,13 @@
         <v>42552</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,34 +3953,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>34</v>
+      </c>
+      <c r="D17" s="7">
+        <v>24895</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H17" s="7">
         <v>42</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>28685</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H17" s="7">
-        <v>34</v>
-      </c>
-      <c r="I17" s="7">
-        <v>24895</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -3995,13 +3989,13 @@
         <v>53581</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,34 +4004,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7011</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H18" s="7">
         <v>12</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>8512</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H18" s="7">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7">
-        <v>7011</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>272</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -4046,13 +4040,13 @@
         <v>15524</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4082,13 +4076,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4097,13 +4091,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4133,13 +4127,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4148,13 +4142,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,7 +4160,7 @@
         <v>80</v>
       </c>
       <c r="D21" s="7">
-        <v>54253</v>
+        <v>57403</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>54</v>
@@ -4181,7 +4175,7 @@
         <v>80</v>
       </c>
       <c r="I21" s="7">
-        <v>57403</v>
+        <v>54253</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>54</v>
@@ -4216,34 +4210,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>151</v>
+      </c>
+      <c r="D22" s="7">
+        <v>105799</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H22" s="7">
         <v>176</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>121697</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H22" s="7">
-        <v>151</v>
-      </c>
-      <c r="I22" s="7">
-        <v>105799</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>327</v>
@@ -4252,13 +4246,13 @@
         <v>227495</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>285</v>
+        <v>57</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,34 +4261,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>203</v>
+      </c>
+      <c r="D23" s="7">
+        <v>142431</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H23" s="7">
         <v>210</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>144376</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H23" s="7">
-        <v>203</v>
-      </c>
-      <c r="I23" s="7">
-        <v>142431</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>413</v>
@@ -4303,13 +4297,13 @@
         <v>286807</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,34 +4312,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>64</v>
+      </c>
+      <c r="D24" s="7">
+        <v>45071</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H24" s="7">
         <v>62</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>41840</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H24" s="7">
-        <v>64</v>
-      </c>
-      <c r="I24" s="7">
-        <v>45071</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="M24" s="7">
         <v>126</v>
@@ -4354,13 +4348,13 @@
         <v>86911</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,34 +4363,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>768</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H25" s="7">
         <v>9</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>6115</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>768</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -4405,13 +4399,13 @@
         <v>6883</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>309</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>311</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,34 +4414,34 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>595</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H26" s="7">
         <v>0</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>0</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>595</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>313</v>
+        <v>41</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -4456,13 +4450,13 @@
         <v>595</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>316</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,25 +4465,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>420</v>
+      </c>
+      <c r="D27" s="7">
+        <v>294663</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
         <v>457</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>314028</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="7">
-        <v>420</v>
-      </c>
-      <c r="I27" s="7">
-        <v>294663</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>54</v>
@@ -4518,7 +4512,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4537,7 +4531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340A5884-BAFC-4333-B260-7F266CE45147}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B542DD2-E5F0-4531-88A5-8B997C8B617D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4554,7 +4548,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4655,34 +4649,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8131</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="7">
         <v>19</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>14029</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H4" s="7">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7">
-        <v>8131</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -4691,13 +4685,13 @@
         <v>22159</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,34 +4700,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15106</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H5" s="7">
         <v>25</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>17876</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="H5" s="7">
-        <v>21</v>
-      </c>
-      <c r="I5" s="7">
-        <v>15106</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -4742,13 +4736,13 @@
         <v>32983</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,34 +4751,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5429</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>3518</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H6" s="7">
-        <v>8</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5429</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -4793,13 +4787,13 @@
         <v>8946</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,31 +4805,31 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>562</v>
+        <v>706</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>270</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>81</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>706</v>
+        <v>562</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>277</v>
+        <v>336</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4844,13 +4838,13 @@
         <v>1269</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>272</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,34 +4853,34 @@
         <v>48</v>
       </c>
       <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>617</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>617</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4895,13 +4889,13 @@
         <v>617</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,25 +4904,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7">
+        <v>29989</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="7">
         <v>50</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>35985</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="7">
-        <v>43</v>
-      </c>
-      <c r="I9" s="7">
-        <v>29989</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -4963,34 +4957,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>148</v>
+      </c>
+      <c r="D10" s="7">
+        <v>104732</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H10" s="7">
         <v>124</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>90965</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H10" s="7">
-        <v>148</v>
-      </c>
-      <c r="I10" s="7">
-        <v>104732</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>272</v>
@@ -4999,13 +4993,13 @@
         <v>195697</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,34 +5008,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>136</v>
+      </c>
+      <c r="D11" s="7">
+        <v>95576</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H11" s="7">
         <v>142</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>103843</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H11" s="7">
-        <v>136</v>
-      </c>
-      <c r="I11" s="7">
-        <v>95576</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>278</v>
@@ -5050,13 +5044,13 @@
         <v>199420</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>359</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,34 +5059,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>46</v>
+      </c>
+      <c r="D12" s="7">
+        <v>31171</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H12" s="7">
         <v>41</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>29821</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H12" s="7">
-        <v>46</v>
-      </c>
-      <c r="I12" s="7">
-        <v>31171</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M12" s="7">
         <v>87</v>
@@ -5101,13 +5095,13 @@
         <v>60992</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>236</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,34 +5110,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2397</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>3763</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2397</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -5152,13 +5146,13 @@
         <v>6160</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,34 +5161,34 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2882</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>1785</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2882</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>243</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -5203,13 +5197,13 @@
         <v>4667</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,25 +5212,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>338</v>
+      </c>
+      <c r="D15" s="7">
+        <v>236758</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="7">
         <v>314</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>230178</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="7">
-        <v>338</v>
-      </c>
-      <c r="I15" s="7">
-        <v>236758</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>54</v>
@@ -5265,40 +5259,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25352</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H16" s="7">
         <v>51</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>35780</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="H16" s="7">
-        <v>36</v>
-      </c>
-      <c r="I16" s="7">
-        <v>25352</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -5307,13 +5301,13 @@
         <v>61132</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,34 +5316,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>45</v>
+      </c>
+      <c r="D17" s="7">
+        <v>32345</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H17" s="7">
         <v>40</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>29202</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="H17" s="7">
-        <v>45</v>
-      </c>
-      <c r="I17" s="7">
-        <v>32345</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -5358,13 +5352,13 @@
         <v>61547</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,34 +5367,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7">
+        <v>12158</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H18" s="7">
         <v>13</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>9812</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="H18" s="7">
-        <v>17</v>
-      </c>
-      <c r="I18" s="7">
-        <v>12158</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -5409,13 +5403,13 @@
         <v>21970</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>413</v>
+        <v>199</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>297</v>
+        <v>410</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>238</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,34 +5418,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>708</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>708</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5460,13 +5454,13 @@
         <v>708</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>416</v>
+        <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,13 +5475,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5496,10 +5490,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>415</v>
@@ -5511,13 +5505,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,25 +5520,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>98</v>
+      </c>
+      <c r="D21" s="7">
+        <v>69856</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="7">
         <v>105</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>75502</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="7">
-        <v>98</v>
-      </c>
-      <c r="I21" s="7">
-        <v>69856</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>54</v>
@@ -5579,34 +5573,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>196</v>
+      </c>
+      <c r="D22" s="7">
+        <v>138215</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H22" s="7">
         <v>194</v>
       </c>
-      <c r="D22" s="7">
-        <v>140773</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="I22" s="7">
+        <v>140774</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H22" s="7">
-        <v>196</v>
-      </c>
-      <c r="I22" s="7">
-        <v>138215</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>422</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>423</v>
+        <v>188</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M22" s="7">
         <v>390</v>
@@ -5615,13 +5609,13 @@
         <v>278989</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>68</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,34 +5624,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>202</v>
+      </c>
+      <c r="D23" s="7">
+        <v>143028</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H23" s="7">
         <v>207</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>150921</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="H23" s="7">
-        <v>202</v>
-      </c>
-      <c r="I23" s="7">
-        <v>143028</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>409</v>
@@ -5666,13 +5660,13 @@
         <v>293949</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,34 +5675,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>71</v>
+      </c>
+      <c r="D24" s="7">
+        <v>48758</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H24" s="7">
         <v>59</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>43150</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="H24" s="7">
-        <v>71</v>
-      </c>
-      <c r="I24" s="7">
-        <v>48758</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M24" s="7">
         <v>130</v>
@@ -5717,13 +5711,13 @@
         <v>91908</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,34 +5726,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3103</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H25" s="7">
         <v>7</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>5034</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3103</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>441</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>349</v>
+        <v>443</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -5768,13 +5762,13 @@
         <v>8137</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,34 +5777,34 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3499</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1785</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3499</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -5819,13 +5813,13 @@
         <v>5284</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>446</v>
+        <v>246</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>344</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,25 +5828,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>479</v>
+      </c>
+      <c r="D27" s="7">
+        <v>336602</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="7">
         <v>469</v>
       </c>
-      <c r="D27" s="7">
-        <v>341664</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="7">
-        <v>479</v>
-      </c>
       <c r="I27" s="7">
-        <v>336602</v>
+        <v>341665</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>54</v>
@@ -5881,7 +5875,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
